--- a/AAII_Financials/Quarterly/MAGAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGAA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/MAGAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>MAGAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,16 +1191,22 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,16 +1244,22 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1391,16 +1477,22 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1532,16 +1636,22 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1579,16 +1689,22 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +1962,14 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1861,16 +2007,22 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1955,68 +2113,80 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,19 +2433,25 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2288,8 +2486,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,8 +2539,14 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2910,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,16 +3009,18 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -2791,13 +3053,19 @@
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2808,43 +3076,49 @@
         <v>1400</v>
       </c>
       <c r="F58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
       </c>
       <c r="I58" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="J58" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="K58" s="3">
         <v>1200</v>
       </c>
       <c r="L58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>900</v>
       </c>
       <c r="Q58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>900</v>
+      </c>
+      <c r="S58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2873,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2885,13 +3159,19 @@
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2899,46 +3179,52 @@
         <v>1800</v>
       </c>
       <c r="E60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G60" s="3">
         <v>1700</v>
       </c>
       <c r="H60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J60" s="3">
         <v>1600</v>
       </c>
       <c r="K60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M60" s="3">
         <v>1500</v>
       </c>
       <c r="N60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P60" s="3">
         <v>1400</v>
       </c>
       <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3482,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3181,46 +3497,52 @@
         <v>1800</v>
       </c>
       <c r="E66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G66" s="3">
         <v>1700</v>
       </c>
       <c r="H66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J66" s="3">
         <v>1600</v>
       </c>
       <c r="K66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M66" s="3">
         <v>1500</v>
       </c>
       <c r="N66" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="O66" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="P66" s="3">
         <v>1400</v>
       </c>
       <c r="Q66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3768,14 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3435,46 +3783,52 @@
         <v>-29100</v>
       </c>
       <c r="E72" s="3">
-        <v>-29000</v>
+        <v>-29100</v>
       </c>
       <c r="F72" s="3">
-        <v>-29000</v>
+        <v>-29100</v>
       </c>
       <c r="G72" s="3">
         <v>-29000</v>
       </c>
       <c r="H72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="I72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="J72" s="3">
         <v>-28900</v>
       </c>
       <c r="K72" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="M72" s="3">
         <v>-28800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-28800</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-28700</v>
       </c>
       <c r="O72" s="3">
         <v>-28700</v>
       </c>
       <c r="P72" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="R72" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-28500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3980,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,46 +3995,52 @@
         <v>-1800</v>
       </c>
       <c r="E76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="F76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="G76" s="3">
         <v>-1700</v>
       </c>
       <c r="H76" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="I76" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="J76" s="3">
         <v>-1600</v>
       </c>
       <c r="K76" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="L76" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="M76" s="3">
         <v>-1500</v>
       </c>
       <c r="N76" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="O76" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="P76" s="3">
         <v>-1400</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3799,16 +4189,22 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4353,17 +4813,23 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4610,14 +5102,20 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MAGAA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MAGAA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>MAGAA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,31 +1045,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,13 +1178,14 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1197,16 +1224,19 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1250,16 +1280,19 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,13 +1478,16 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1483,16 +1526,19 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,13 +1646,16 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1642,21 +1694,24 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1695,16 +1750,19 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,13 +2038,16 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2013,16 +2086,19 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,13 +2150,16 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2119,74 +2198,80 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,19 +3141,20 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3059,18 +3190,21 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E58" s="3">
         <v>1400</v>
@@ -3082,7 +3216,7 @@
         <v>1400</v>
       </c>
       <c r="H58" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="I58" s="3">
         <v>1300</v>
@@ -3091,7 +3225,7 @@
         <v>1300</v>
       </c>
       <c r="K58" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="L58" s="3">
         <v>1200</v>
@@ -3100,16 +3234,16 @@
         <v>1200</v>
       </c>
       <c r="N58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O58" s="3">
         <v>1100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R58" s="3">
         <v>900</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3153,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3165,18 +3302,21 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
         <v>1800</v>
@@ -3185,7 +3325,7 @@
         <v>1800</v>
       </c>
       <c r="G60" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H60" s="3">
         <v>1700</v>
@@ -3194,7 +3334,7 @@
         <v>1700</v>
       </c>
       <c r="J60" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K60" s="3">
         <v>1600</v>
@@ -3203,7 +3343,7 @@
         <v>1600</v>
       </c>
       <c r="M60" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N60" s="3">
         <v>1500</v>
@@ -3212,7 +3352,7 @@
         <v>1500</v>
       </c>
       <c r="P60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q60" s="3">
         <v>1400</v>
@@ -3221,10 +3361,13 @@
         <v>1400</v>
       </c>
       <c r="S60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3643,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E66" s="3">
         <v>1800</v>
@@ -3503,7 +3661,7 @@
         <v>1800</v>
       </c>
       <c r="G66" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H66" s="3">
         <v>1700</v>
@@ -3512,7 +3670,7 @@
         <v>1700</v>
       </c>
       <c r="J66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K66" s="3">
         <v>1600</v>
@@ -3521,7 +3679,7 @@
         <v>1600</v>
       </c>
       <c r="M66" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N66" s="3">
         <v>1500</v>
@@ -3530,7 +3688,7 @@
         <v>1500</v>
       </c>
       <c r="P66" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q66" s="3">
         <v>1400</v>
@@ -3539,10 +3697,13 @@
         <v>1400</v>
       </c>
       <c r="S66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,13 +3945,16 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-29100</v>
+        <v>-28800</v>
       </c>
       <c r="E72" s="3">
         <v>-29100</v>
@@ -3789,7 +3963,7 @@
         <v>-29100</v>
       </c>
       <c r="G72" s="3">
-        <v>-29000</v>
+        <v>-29100</v>
       </c>
       <c r="H72" s="3">
         <v>-29000</v>
@@ -3798,7 +3972,7 @@
         <v>-29000</v>
       </c>
       <c r="J72" s="3">
-        <v>-28900</v>
+        <v>-29000</v>
       </c>
       <c r="K72" s="3">
         <v>-28900</v>
@@ -3807,13 +3981,13 @@
         <v>-28900</v>
       </c>
       <c r="M72" s="3">
-        <v>-28800</v>
+        <v>-28900</v>
       </c>
       <c r="N72" s="3">
         <v>-28800</v>
       </c>
       <c r="O72" s="3">
-        <v>-28700</v>
+        <v>-28800</v>
       </c>
       <c r="P72" s="3">
         <v>-28700</v>
@@ -3822,13 +3996,16 @@
         <v>-28700</v>
       </c>
       <c r="R72" s="3">
-        <v>-28500</v>
+        <v>-28700</v>
       </c>
       <c r="S72" s="3">
         <v>-28500</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-28500</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,13 +4169,16 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
       <c r="E76" s="3">
         <v>-1800</v>
@@ -4001,7 +4187,7 @@
         <v>-1800</v>
       </c>
       <c r="G76" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H76" s="3">
         <v>-1700</v>
@@ -4010,7 +4196,7 @@
         <v>-1700</v>
       </c>
       <c r="J76" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="K76" s="3">
         <v>-1600</v>
@@ -4019,7 +4205,7 @@
         <v>-1600</v>
       </c>
       <c r="M76" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="N76" s="3">
         <v>-1500</v>
@@ -4028,7 +4214,7 @@
         <v>-1500</v>
       </c>
       <c r="P76" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="Q76" s="3">
         <v>-1400</v>
@@ -4037,10 +4223,13 @@
         <v>-1400</v>
       </c>
       <c r="S76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,71 +4281,77 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4195,16 +4390,19 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4819,17 +5049,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5108,14 +5354,17 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>
